--- a/rodar_codigo_minuto_a_minuto/Cotações.xlsx
+++ b/rodar_codigo_minuto_a_minuto/Cotações.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.7055</v>
+        <v>5.6834</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.4478</v>
+        <v>6.4183</v>
       </c>
       <c r="C3" t="inlineStr"/>
     </row>
